--- a/PCR/Cas_PCR_ajustés_vs_nonajustés.xlsx
+++ b/PCR/Cas_PCR_ajustés_vs_nonajustés.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Prud'homme\Dropbox\EnqueteCOVID\PCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8FA67-6648-4A21-A690-C8F591976555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1723A760-B41A-44FC-BA4D-5F645542B327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BB1CEDF-85B1-496F-B3A2-614389A4832F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>(Semaine 1) 13 au 18 janvier</t>
   </si>
@@ -91,6 +91,25 @@
   </si>
   <si>
     <r>
+      <t>Calcul</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Calcul ajusté</t>
+    </r>
+    <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="10"/>
@@ -101,20 +120,10 @@
       </rPr>
       <t>2</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Calcul fait à partir des données extraites le 8 avril 2022 et ajustés rétroactivement par l'INSPQ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Calcul</t>
+  </si>
+  <si>
+    <r>
+      <t>(Semaine 3) 27 janvier au 1</t>
     </r>
     <r>
       <rPr>
@@ -125,13 +134,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Calcul ajusté</t>
-    </r>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> février</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Semaine 7) 24 février au 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mars 2022</t>
+    </r>
+  </si>
+  <si>
+    <t>Source: https://www.inspq.qc.ca/covid-19/donnees, tableau 1.2- Évolution du nombre de cas confirmés de COVID-19 au Québec selon la date de déclaration des cas</t>
+  </si>
+  <si>
+    <t>Cas par jour</t>
+  </si>
+  <si>
+    <t>(Semaine 13) 7 au 12 avril 2022</t>
+  </si>
+  <si>
+    <t>(Semaine 14) 14 au 19 avril 2022</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
@@ -143,22 +197,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>(Semaine 3) 27 janvier au 1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>er</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -167,43 +205,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> février</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(Semaine 7) 24 février au 1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>er</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mars 2022</t>
-    </r>
-  </si>
-  <si>
-    <t>Source: https://www.inspq.qc.ca/covid-19/donnees, tableau 1.2- Évolution du nombre de cas confirmés de COVID-19 au Québec selon la date de déclaration des cas</t>
-  </si>
-  <si>
-    <t>Cas par jour</t>
-  </si>
-  <si>
-    <t>Nombre  moyen de cas COVID par jour (PCR), semaines du 13-18 janvier au 31 mars-5 avril 2022</t>
+      <t xml:space="preserve"> Calcul fait à partir des données extraites le 2 mai 2022 et ajustés rétroactivement par l'INSPQ</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre moyen de cas COVID par jour (PCR)</t>
+  </si>
+  <si>
+    <t>(Semaine 15) 21 au 26 avril 2022</t>
   </si>
 </sst>
 </file>
@@ -258,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -426,7 +435,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -440,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,67 +474,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -825,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65080CAC-9116-4759-9C60-AD807147FF0A}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -838,189 +867,222 @@
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18">
+        <v>6974</v>
+      </c>
+      <c r="C4" s="21">
+        <v>7057.0111981724867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4342</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4363.3546237704331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="18">
+        <v>3324</v>
+      </c>
+      <c r="C6" s="21">
+        <v>3367.4154285714285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3005</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3037.3705714285711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2441</v>
+      </c>
+      <c r="C8" s="22">
+        <v>2457.0832857142855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1683</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1691.4327142857142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1296</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1297.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1120</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1125.7971428571429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1074</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1081.2637142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1208</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1249.2737142857143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1921</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1951.5122857142856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18">
+        <v>2739</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2766.1870000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="19">
+        <v>3089.5362857142859</v>
+      </c>
+      <c r="C16" s="23">
+        <v>3121.0801428571422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18">
-        <v>6973.532255919049</v>
-      </c>
-      <c r="C4" s="19">
-        <v>7059.7008425981012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18">
-        <v>4341.9107612011767</v>
-      </c>
-      <c r="C5" s="19">
-        <v>4365.6994170289672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="18">
-        <v>3324.3540000000003</v>
-      </c>
-      <c r="C6" s="19">
-        <v>3369.1334285714288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="18">
-        <v>3004.6179999999999</v>
-      </c>
-      <c r="C7" s="19">
-        <v>3038.4637142857146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2441.4639999999999</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2457.3697142857141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1683.3284285714287</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1690.8262857142854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B17" s="18">
+        <v>2641.5245714285711</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2664.2069999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2088.5264285714284</v>
+      </c>
+      <c r="C18" s="24">
+        <v>2099.2524285714285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20">
-        <v>1296.2595714285715</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1297.4141428571427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1119.8482857142858</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1125.6427142857142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1074.3838571428571</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1079.0194285714285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="20">
-        <v>1208.2662857142857</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1248.517142857143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1921.2752857142857</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1946.2762857142859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="22">
-        <v>2739.3947142857146</v>
-      </c>
-      <c r="C15" s="23">
-        <v>2759.6172857142851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
